--- a/Locations_Dept_Data.xlsx
+++ b/Locations_Dept_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="16212" windowHeight="5808" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="30" windowWidth="16215" windowHeight="5805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Location_Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>DEPT ID</t>
   </si>
@@ -416,10 +416,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -477,16 +477,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -543,6 +543,30 @@
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
